--- a/com.verizon/src/test/resources/test_data.xlsx
+++ b/com.verizon/src/test/resources/test_data.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jadeh\IdeaProjects\SeleniumBootcamp\com.verizon\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43D4D570-1C3C-4CAB-BB6A-13A4B814E072}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20561CF-6664-4202-A636-C111B229E009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{9A48D27C-E1CE-453E-AEFB-C66C2C618782}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{9A48D27C-E1CE-453E-AEFB-C66C2C618782}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSearchDP" sheetId="1" r:id="rId1"/>
+    <sheet name="TestNavigateTo5GPageDP" sheetId="2" r:id="rId2"/>
+    <sheet name="TestNavigateToBusinessPageDP" sheetId="3" r:id="rId3"/>
+    <sheet name="TestNavigateToSpanishHomePageDP" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>iPhone</t>
   </si>
@@ -48,6 +51,18 @@
   </si>
   <si>
     <t>apple watch</t>
+  </si>
+  <si>
+    <t>The most
+reliable 5G
+network in
+America. 1</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Español</t>
   </si>
 </sst>
 </file>
@@ -83,9 +98,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,7 +420,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5231F72C-ADAC-4260-844B-090B203EA2C0}">
   <dimension ref="A2:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
@@ -438,4 +456,74 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46AC425-2286-4A49-A959-12D809481B8F}">
+  <dimension ref="A1:A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="16.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="13.8" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:1" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96B98ACC-A239-4BCE-A405-B452C74E4F3E}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{138D7F90-DB63-49F7-8D44-CE138B48DC8E}">
+  <dimension ref="A2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>